--- a/XX_Sonstiges/Daten_Parking und Regen.xlsx
+++ b/XX_Sonstiges/Daten_Parking und Regen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adelina/Documents/Studium/01_Module/_3. Semester/Interaktive_Medien_III/Material Zürich-20250923/03_datenanalyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adelina/Documents/Studium/01_Module/_3. Semester/Interaktive_Medien_III/Rainy Parking/XX_Sonstiges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0A2C6-8F08-4641-8760-E40BB63D3FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F43BE02-B7C4-9B48-85F8-4FA76B759B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>free</t>
   </si>
   <si>
-    <t>Hierarchy (Zahl)</t>
-  </si>
-  <si>
     <t>Gesamtsumme der aktuell freien Parkplätze über alle Parkhäuser in Basel zum Messzeitpunkt.</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>sum(lots[ ].free)</t>
+  </si>
+  <si>
+    <t>Zahl</t>
   </si>
 </sst>
 </file>
@@ -357,27 +357,27 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1528,11 +1528,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1544,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -1585,13 +1585,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>174</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>0.375</v>
       </c>
       <c r="D5" s="8"/>
@@ -1600,11 +1600,11 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="9">
         <v>3000</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="9"/>
@@ -1613,11 +1613,11 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9">
         <v>3489</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>0.45833333333333331</v>
       </c>
       <c r="D7" s="9"/>
@@ -1626,11 +1626,11 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10">
         <v>4589</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>0.5</v>
       </c>
       <c r="D8" s="10"/>
@@ -1643,10 +1643,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1658,10 +1658,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1681,14 +1681,14 @@
       <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1741,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -1782,13 +1782,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>0.375</v>
       </c>
       <c r="D5" s="8"/>
@@ -1797,11 +1797,11 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="9">
         <v>0.2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="9"/>
@@ -1810,11 +1810,11 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9">
         <v>1.6</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>0.45833333333333331</v>
       </c>
       <c r="D7" s="9"/>
@@ -1823,11 +1823,11 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10">
         <v>3.4</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>0.5</v>
       </c>
       <c r="D8" s="10"/>
@@ -1840,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1855,10 +1855,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1878,14 +1878,14 @@
       <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
